--- a/data/pca/factorExposure/factorExposure_2010-07-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-07.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.0164773269373856</v>
+        <v>-0.0166232626021195</v>
       </c>
       <c r="C2">
-        <v>0.0007442284487113619</v>
+        <v>-0.0008814053033840568</v>
       </c>
       <c r="D2">
-        <v>-0.01223904036095601</v>
+        <v>-0.007150022967175994</v>
       </c>
       <c r="E2">
-        <v>-0.01175590583855292</v>
+        <v>0.002241286738083126</v>
       </c>
       <c r="F2">
-        <v>-0.03376425548655435</v>
+        <v>0.01208943668921893</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1198934717372672</v>
+        <v>-0.0951265252324331</v>
       </c>
       <c r="C4">
-        <v>-0.09276327791833015</v>
+        <v>-0.01796601480973913</v>
       </c>
       <c r="D4">
-        <v>-0.007504492396613867</v>
+        <v>-0.07818194799675021</v>
       </c>
       <c r="E4">
-        <v>0.1426332701086267</v>
+        <v>-0.02780647743355213</v>
       </c>
       <c r="F4">
-        <v>-0.09288080808561831</v>
+        <v>-0.03970954514910893</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1245951652985216</v>
+        <v>-0.1516682134861413</v>
       </c>
       <c r="C6">
-        <v>-0.06113242283403877</v>
+        <v>-0.02436671444495316</v>
       </c>
       <c r="D6">
-        <v>0.002661455235686142</v>
+        <v>0.01979736456024229</v>
       </c>
       <c r="E6">
-        <v>0.0688775372021356</v>
+        <v>-0.01202784702333387</v>
       </c>
       <c r="F6">
-        <v>-0.04540656766386613</v>
+        <v>-0.04080574286938602</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07071561291056931</v>
+        <v>-0.06301686467846944</v>
       </c>
       <c r="C7">
-        <v>-0.08584329753455848</v>
+        <v>-0.0005701468360193096</v>
       </c>
       <c r="D7">
-        <v>-0.007746092904830501</v>
+        <v>-0.05107616963227689</v>
       </c>
       <c r="E7">
-        <v>0.018006417175703</v>
+        <v>-0.0136683821478239</v>
       </c>
       <c r="F7">
-        <v>0.003094694442895833</v>
+        <v>-0.05614424227920638</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04099752496009389</v>
+        <v>-0.05983182610059568</v>
       </c>
       <c r="C8">
-        <v>-0.006701464733778277</v>
+        <v>0.01278578505649657</v>
       </c>
       <c r="D8">
-        <v>-0.01368482089823969</v>
+        <v>-0.02652210652241949</v>
       </c>
       <c r="E8">
-        <v>0.07481926225853441</v>
+        <v>-0.01043480166911385</v>
       </c>
       <c r="F8">
-        <v>-0.09110667332104475</v>
+        <v>0.02110647517778298</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08833741482985626</v>
+        <v>-0.07280731727010811</v>
       </c>
       <c r="C9">
-        <v>-0.06237837749084933</v>
+        <v>-0.0146108189811264</v>
       </c>
       <c r="D9">
-        <v>0.008110190459921753</v>
+        <v>-0.07591352709136399</v>
       </c>
       <c r="E9">
-        <v>0.1103641653782973</v>
+        <v>-0.0206484047112198</v>
       </c>
       <c r="F9">
-        <v>-0.07063222262375694</v>
+        <v>-0.06089565631875696</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1291923580388404</v>
+        <v>-0.09123862355880785</v>
       </c>
       <c r="C10">
-        <v>0.1832082368755044</v>
+        <v>-0.01346985625106607</v>
       </c>
       <c r="D10">
-        <v>-0.0126064764596825</v>
+        <v>0.1733049876468544</v>
       </c>
       <c r="E10">
-        <v>-0.0326727904898341</v>
+        <v>0.03366134071096975</v>
       </c>
       <c r="F10">
-        <v>0.04627689467397213</v>
+        <v>0.05104574234052495</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06532285975934428</v>
+        <v>-0.0885823949396254</v>
       </c>
       <c r="C11">
-        <v>-0.05637929233831446</v>
+        <v>-0.01368487945893644</v>
       </c>
       <c r="D11">
-        <v>0.04064581379995639</v>
+        <v>-0.1067535135315802</v>
       </c>
       <c r="E11">
-        <v>0.08303881904785045</v>
+        <v>-0.04046865482695481</v>
       </c>
       <c r="F11">
-        <v>-0.04976289175894163</v>
+        <v>-0.02674710527732658</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07617999782513653</v>
+        <v>-0.09384128713848977</v>
       </c>
       <c r="C12">
-        <v>-0.06757335412039958</v>
+        <v>-0.01128396927100951</v>
       </c>
       <c r="D12">
-        <v>0.05437864719396045</v>
+        <v>-0.1120951226892429</v>
       </c>
       <c r="E12">
-        <v>0.1266664155168518</v>
+        <v>-0.03907722407049406</v>
       </c>
       <c r="F12">
-        <v>-0.02581242024631981</v>
+        <v>-0.02910038762865307</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04138113894168546</v>
+        <v>-0.04377637392218858</v>
       </c>
       <c r="C13">
-        <v>-0.039707588854394</v>
+        <v>-0.004316720199376387</v>
       </c>
       <c r="D13">
-        <v>-0.02526918139944406</v>
+        <v>-0.03794511851820227</v>
       </c>
       <c r="E13">
-        <v>0.04628347238680358</v>
+        <v>0.01426937529155493</v>
       </c>
       <c r="F13">
-        <v>-0.0305848100316095</v>
+        <v>-0.02059053419377294</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.04640999084271918</v>
+        <v>-0.0222226076214396</v>
       </c>
       <c r="C14">
-        <v>-0.0303684638112198</v>
+        <v>-0.01514685862419812</v>
       </c>
       <c r="D14">
-        <v>0.001002255810171749</v>
+        <v>-0.02681155464064069</v>
       </c>
       <c r="E14">
-        <v>0.04320314876920058</v>
+        <v>-0.0155349423444068</v>
       </c>
       <c r="F14">
-        <v>-0.02676507236463024</v>
+        <v>-0.02594478378507142</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02749242137571197</v>
+        <v>-0.03240718757266408</v>
       </c>
       <c r="C15">
-        <v>-0.01731218137408979</v>
+        <v>-0.006092196184399355</v>
       </c>
       <c r="D15">
-        <v>-0.07429506416113117</v>
+        <v>-0.03867659093032404</v>
       </c>
       <c r="E15">
-        <v>-0.004358100277220021</v>
+        <v>-0.007108340958466164</v>
       </c>
       <c r="F15">
-        <v>-0.03366279290524883</v>
+        <v>-0.03479002104209888</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07963794171273629</v>
+        <v>-0.07592948321392516</v>
       </c>
       <c r="C16">
-        <v>-0.07433819969383292</v>
+        <v>-0.005328358182118411</v>
       </c>
       <c r="D16">
-        <v>0.03970587512864909</v>
+        <v>-0.1101486038693519</v>
       </c>
       <c r="E16">
-        <v>0.1002949472938876</v>
+        <v>-0.05672878135265184</v>
       </c>
       <c r="F16">
-        <v>-0.02518813147447726</v>
+        <v>-0.03442526091446894</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01651051007416006</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.004356079711873561</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02374116265618383</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01128885444158933</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02791792401671656</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04439343491485258</v>
+        <v>-0.06155736809305049</v>
       </c>
       <c r="C20">
-        <v>-0.02398333720960555</v>
+        <v>-0.003171428201183771</v>
       </c>
       <c r="D20">
-        <v>-0.03605593779141542</v>
+        <v>-0.06549433725616426</v>
       </c>
       <c r="E20">
-        <v>0.0714956611293813</v>
+        <v>-0.04985743875100071</v>
       </c>
       <c r="F20">
-        <v>-0.01324812962883434</v>
+        <v>-0.03120218470647933</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03713250734080843</v>
+        <v>-0.03749157065369228</v>
       </c>
       <c r="C21">
-        <v>-0.02418782216218684</v>
+        <v>-0.008145975562995579</v>
       </c>
       <c r="D21">
-        <v>0.01412834484574978</v>
+        <v>-0.0346527697185276</v>
       </c>
       <c r="E21">
-        <v>0.04328860543754365</v>
+        <v>0.01282210717872992</v>
       </c>
       <c r="F21">
-        <v>-0.01841668308754768</v>
+        <v>0.01743099553546065</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05479806688607074</v>
+        <v>-0.04277378543949465</v>
       </c>
       <c r="C22">
-        <v>-0.02514293348300435</v>
+        <v>-0.001075794670030679</v>
       </c>
       <c r="D22">
-        <v>-0.6476779247354928</v>
+        <v>0.001091599028482894</v>
       </c>
       <c r="E22">
-        <v>0.02765883729318056</v>
+        <v>-0.03415236227048333</v>
       </c>
       <c r="F22">
-        <v>0.1292575367509249</v>
+        <v>0.0252444705485324</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05535774374120936</v>
+        <v>-0.04281106781769525</v>
       </c>
       <c r="C23">
-        <v>-0.02633796696471517</v>
+        <v>-0.001098548716130454</v>
       </c>
       <c r="D23">
-        <v>-0.6498396057123036</v>
+        <v>0.0009175648424321853</v>
       </c>
       <c r="E23">
-        <v>0.03207592325807403</v>
+        <v>-0.03451401736099713</v>
       </c>
       <c r="F23">
-        <v>0.1270032808069471</v>
+        <v>0.02466918944681293</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07807951189743489</v>
+        <v>-0.08192246767168014</v>
       </c>
       <c r="C24">
-        <v>-0.07155995214171984</v>
+        <v>-0.005284262208012665</v>
       </c>
       <c r="D24">
-        <v>0.03369063899567373</v>
+        <v>-0.1116398443241763</v>
       </c>
       <c r="E24">
-        <v>0.09801658428487506</v>
+        <v>-0.04436774954420725</v>
       </c>
       <c r="F24">
-        <v>-0.03026190342029755</v>
+        <v>-0.02723919743888424</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07563210134609484</v>
+        <v>-0.08649541583720501</v>
       </c>
       <c r="C25">
-        <v>-0.051884915913235</v>
+        <v>-0.007669349351862152</v>
       </c>
       <c r="D25">
-        <v>0.05397779931196466</v>
+        <v>-0.0962883500691937</v>
       </c>
       <c r="E25">
-        <v>0.1053471220096788</v>
+        <v>-0.02591625229189815</v>
       </c>
       <c r="F25">
-        <v>-0.03489751182263897</v>
+        <v>-0.03634154181816647</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04263948169544796</v>
+        <v>-0.05684643075423916</v>
       </c>
       <c r="C26">
-        <v>-0.01610257364181558</v>
+        <v>-0.01527279652732446</v>
       </c>
       <c r="D26">
-        <v>-0.01387447371728032</v>
+        <v>-0.0267082151356488</v>
       </c>
       <c r="E26">
-        <v>0.08759062037300792</v>
+        <v>-0.02395886751332646</v>
       </c>
       <c r="F26">
-        <v>0.02808715086658258</v>
+        <v>-0.0009263439204077881</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1529412475698794</v>
+        <v>-0.1375481383332369</v>
       </c>
       <c r="C28">
-        <v>0.2763223273135776</v>
+        <v>-0.01076230120483168</v>
       </c>
       <c r="D28">
-        <v>0.005653473763060681</v>
+        <v>0.2761163651583152</v>
       </c>
       <c r="E28">
-        <v>0.01646173272197353</v>
+        <v>0.06552026243432614</v>
       </c>
       <c r="F28">
-        <v>-0.002157683838127774</v>
+        <v>-0.0452156333361086</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.04184018892935227</v>
+        <v>-0.02749204823000412</v>
       </c>
       <c r="C29">
-        <v>-0.02741025057525035</v>
+        <v>-0.009349352962136187</v>
       </c>
       <c r="D29">
-        <v>0.005017006718576895</v>
+        <v>-0.02550502955461202</v>
       </c>
       <c r="E29">
-        <v>0.03957163170094476</v>
+        <v>-0.008562472203371436</v>
       </c>
       <c r="F29">
-        <v>-0.02028875291061028</v>
+        <v>0.007577698907907748</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08159715729029843</v>
+        <v>-0.06574453726529492</v>
       </c>
       <c r="C30">
-        <v>-0.05278797970609442</v>
+        <v>-0.00806925889471694</v>
       </c>
       <c r="D30">
-        <v>0.007211401509325544</v>
+        <v>-0.07317596853798038</v>
       </c>
       <c r="E30">
-        <v>0.2817877281095439</v>
+        <v>-0.0200807973079015</v>
       </c>
       <c r="F30">
-        <v>0.01353085890800307</v>
+        <v>-0.1233486345748176</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02973427631406856</v>
+        <v>-0.048412269826414</v>
       </c>
       <c r="C31">
-        <v>-0.05775768820552877</v>
+        <v>-0.01522148486488897</v>
       </c>
       <c r="D31">
-        <v>-0.004841663255498676</v>
+        <v>-0.02995898856512014</v>
       </c>
       <c r="E31">
-        <v>0.0316548956600461</v>
+        <v>-0.02633007953041451</v>
       </c>
       <c r="F31">
-        <v>-0.02463406296247634</v>
+        <v>0.002327639941397489</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05480598532205887</v>
+        <v>-0.04812944302461438</v>
       </c>
       <c r="C32">
-        <v>-0.0006695910707051643</v>
+        <v>-0.0009899896811570203</v>
       </c>
       <c r="D32">
-        <v>0.0364587025470615</v>
+        <v>-0.02357613620953571</v>
       </c>
       <c r="E32">
-        <v>0.008193120486706796</v>
+        <v>-0.02355137153509368</v>
       </c>
       <c r="F32">
-        <v>-0.1079376371016069</v>
+        <v>-0.005808727661551882</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09524139917830694</v>
+        <v>-0.09207503989602109</v>
       </c>
       <c r="C33">
-        <v>-0.06766076604835169</v>
+        <v>-0.01084612065341085</v>
       </c>
       <c r="D33">
-        <v>0.02006984654029028</v>
+        <v>-0.08694318466936897</v>
       </c>
       <c r="E33">
-        <v>0.07326894564516509</v>
+        <v>-0.04255667868183928</v>
       </c>
       <c r="F33">
-        <v>-0.01242673924902271</v>
+        <v>-0.04289362894061836</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06685035142530531</v>
+        <v>-0.06910709491699639</v>
       </c>
       <c r="C34">
-        <v>-0.05159364007725364</v>
+        <v>-0.01316044542942139</v>
       </c>
       <c r="D34">
-        <v>0.04664938258238002</v>
+        <v>-0.09005533096560066</v>
       </c>
       <c r="E34">
-        <v>0.0841403903082099</v>
+        <v>-0.02712282866415995</v>
       </c>
       <c r="F34">
-        <v>-0.03350305183591409</v>
+        <v>-0.05205454993081566</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01947228787571967</v>
+        <v>-0.02422131683135671</v>
       </c>
       <c r="C35">
-        <v>-0.01720584072359544</v>
+        <v>-0.002497971301595318</v>
       </c>
       <c r="D35">
-        <v>-0.004875452391826227</v>
+        <v>-0.009088096087184755</v>
       </c>
       <c r="E35">
-        <v>0.01803206687270565</v>
+        <v>-0.01177891283983335</v>
       </c>
       <c r="F35">
-        <v>0.0009005170421136895</v>
+        <v>-0.01267297297244474</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02897724599731766</v>
+        <v>-0.02635598423638373</v>
       </c>
       <c r="C36">
-        <v>-0.02002805555202989</v>
+        <v>-0.007103332809244029</v>
       </c>
       <c r="D36">
-        <v>-0.0183951317390807</v>
+        <v>-0.03820877002116693</v>
       </c>
       <c r="E36">
-        <v>0.08568192501705559</v>
+        <v>-0.0161269645370764</v>
       </c>
       <c r="F36">
-        <v>-0.02143989167878403</v>
+        <v>-0.01349590186422169</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02609181864500015</v>
+        <v>-0.003204875063583096</v>
       </c>
       <c r="C38">
-        <v>-0.05566014774907226</v>
+        <v>-0.0006066896663980523</v>
       </c>
       <c r="D38">
-        <v>-0.0234818627014165</v>
+        <v>-0.003731264869367019</v>
       </c>
       <c r="E38">
-        <v>-0.07196687012363852</v>
+        <v>-0.004516163261727775</v>
       </c>
       <c r="F38">
-        <v>0.1131592385734357</v>
+        <v>0.00354930767853041</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09789820830761434</v>
+        <v>-0.1119106548493444</v>
       </c>
       <c r="C39">
-        <v>-0.07877684870627827</v>
+        <v>-0.01952409747995531</v>
       </c>
       <c r="D39">
-        <v>0.1265475827422611</v>
+        <v>-0.1451663504781338</v>
       </c>
       <c r="E39">
-        <v>0.1802739710466951</v>
+        <v>-0.0486695740272254</v>
       </c>
       <c r="F39">
-        <v>0.04949464191670427</v>
+        <v>-0.03827827324345043</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02445967677905973</v>
+        <v>-0.03735844698772988</v>
       </c>
       <c r="C40">
-        <v>-0.05960876310844221</v>
+        <v>-0.00775376226832808</v>
       </c>
       <c r="D40">
-        <v>-0.02764996051769388</v>
+        <v>-0.02536288143453489</v>
       </c>
       <c r="E40">
-        <v>0.03153944956641434</v>
+        <v>-0.002116501829367524</v>
       </c>
       <c r="F40">
-        <v>-0.08976925699585125</v>
+        <v>0.01567933249523316</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0300549191516077</v>
+        <v>-0.02645575536040411</v>
       </c>
       <c r="C41">
-        <v>-0.02516631448685742</v>
+        <v>-0.006790563247689771</v>
       </c>
       <c r="D41">
-        <v>0.0219693958344811</v>
+        <v>-0.01179107458399159</v>
       </c>
       <c r="E41">
-        <v>0.00904525974563633</v>
+        <v>-0.01089819739373377</v>
       </c>
       <c r="F41">
-        <v>0.01814632892918094</v>
+        <v>0.01208063163856776</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04621680002225824</v>
+        <v>-0.04313463450947711</v>
       </c>
       <c r="C43">
-        <v>-0.04774358550121555</v>
+        <v>-0.007096046953292822</v>
       </c>
       <c r="D43">
-        <v>-0.01107257927856884</v>
+        <v>-0.02177654548800768</v>
       </c>
       <c r="E43">
-        <v>0.03748173687008913</v>
+        <v>-0.02579417053248983</v>
       </c>
       <c r="F43">
-        <v>0.04095083575780374</v>
+        <v>0.01157378401279782</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09649626628881681</v>
+        <v>-0.0737372546328407</v>
       </c>
       <c r="C44">
-        <v>-0.07814332378829332</v>
+        <v>-0.0237697206680732</v>
       </c>
       <c r="D44">
-        <v>-0.06696215360533972</v>
+        <v>-0.09544882641868911</v>
       </c>
       <c r="E44">
-        <v>0.09375306591694356</v>
+        <v>-0.06344090269563876</v>
       </c>
       <c r="F44">
-        <v>-0.08539719567705478</v>
+        <v>-0.1826417832013419</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0388732459612105</v>
+        <v>-0.02377035912086105</v>
       </c>
       <c r="C46">
-        <v>-0.03637854961273145</v>
+        <v>-0.004141328041350074</v>
       </c>
       <c r="D46">
-        <v>-0.05529358564211249</v>
+        <v>-0.008934315399384858</v>
       </c>
       <c r="E46">
-        <v>0.0115044343077346</v>
+        <v>-0.02305209500591164</v>
       </c>
       <c r="F46">
-        <v>-0.03151516766039271</v>
+        <v>0.00474575763281039</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05546164409447421</v>
+        <v>-0.05309009851363366</v>
       </c>
       <c r="C47">
-        <v>-0.04410916930943128</v>
+        <v>-0.003535263397232503</v>
       </c>
       <c r="D47">
-        <v>-0.002773457443307319</v>
+        <v>-0.01355225533826528</v>
       </c>
       <c r="E47">
-        <v>0.0260776417127425</v>
+        <v>-0.02254768896948784</v>
       </c>
       <c r="F47">
-        <v>0.01567901248962491</v>
+        <v>0.04765740653935193</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04639451944592345</v>
+        <v>-0.04813665544547002</v>
       </c>
       <c r="C48">
-        <v>-0.01576937119173294</v>
+        <v>-0.003360190969552368</v>
       </c>
       <c r="D48">
-        <v>0.006936905980388341</v>
+        <v>-0.04128233695714667</v>
       </c>
       <c r="E48">
-        <v>0.07842476852509755</v>
+        <v>0.00879126292260362</v>
       </c>
       <c r="F48">
-        <v>-0.06406330275311818</v>
+        <v>-0.01875885433392411</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2381297163050198</v>
+        <v>-0.2074025551446499</v>
       </c>
       <c r="C49">
-        <v>-0.064453545653593</v>
+        <v>-0.01722296665538762</v>
       </c>
       <c r="D49">
-        <v>0.04234633400899611</v>
+        <v>0.004071464930987903</v>
       </c>
       <c r="E49">
-        <v>-0.2650980153309055</v>
+        <v>-0.04231787193822586</v>
       </c>
       <c r="F49">
-        <v>0.1190849034206858</v>
+        <v>-0.03353491468404</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03716965962851557</v>
+        <v>-0.04871911596482134</v>
       </c>
       <c r="C50">
-        <v>-0.04722424240428082</v>
+        <v>-0.01139204738898325</v>
       </c>
       <c r="D50">
-        <v>0.009766172791296461</v>
+        <v>-0.02852947221427016</v>
       </c>
       <c r="E50">
-        <v>0.06610869856737436</v>
+        <v>-0.02832220474347042</v>
       </c>
       <c r="F50">
-        <v>-0.002219885552846348</v>
+        <v>-0.006524045056422719</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.03214545413829268</v>
+        <v>-0.003700382495354543</v>
       </c>
       <c r="C51">
-        <v>-0.002408479025194208</v>
+        <v>-0.0008696614596914931</v>
       </c>
       <c r="D51">
-        <v>0.0005220239178246027</v>
+        <v>0.001535919832502786</v>
       </c>
       <c r="E51">
-        <v>-0.05275254891205803</v>
+        <v>-0.001700333625165665</v>
       </c>
       <c r="F51">
-        <v>0.0115639398114208</v>
+        <v>-0.004161471846714189</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.02055460968127892</v>
+        <v>-0.1406118557314815</v>
       </c>
       <c r="C52">
-        <v>-0.007868776866888015</v>
+        <v>-0.01261236343490722</v>
       </c>
       <c r="D52">
-        <v>0.02705919836421824</v>
+        <v>-0.05153313673863637</v>
       </c>
       <c r="E52">
-        <v>0.005346357762725878</v>
+        <v>-0.01448296647721349</v>
       </c>
       <c r="F52">
-        <v>0.008485134095340678</v>
+        <v>-0.03102262957114819</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1471258764025351</v>
+        <v>-0.1725484837882771</v>
       </c>
       <c r="C53">
-        <v>-0.05814329699166465</v>
+        <v>-0.01537931425272426</v>
       </c>
       <c r="D53">
-        <v>-0.01016618057821283</v>
+        <v>-0.02044369628736267</v>
       </c>
       <c r="E53">
-        <v>-0.04906263684311865</v>
+        <v>-0.03809197076517491</v>
       </c>
       <c r="F53">
-        <v>0.09697670422484728</v>
+        <v>-0.05797560414169426</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06284541352871353</v>
+        <v>-0.02202917907846927</v>
       </c>
       <c r="C54">
-        <v>-0.03325949297653259</v>
+        <v>-0.01305371401082731</v>
       </c>
       <c r="D54">
-        <v>-0.01197520305433356</v>
+        <v>-0.02799424875816063</v>
       </c>
       <c r="E54">
-        <v>0.1152534115655327</v>
+        <v>-0.01534145297338845</v>
       </c>
       <c r="F54">
-        <v>-0.08298747108172529</v>
+        <v>-8.796610553514625e-05</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08201375328040394</v>
+        <v>-0.1140993708789268</v>
       </c>
       <c r="C55">
-        <v>-0.04890050461782728</v>
+        <v>-0.01435508898637117</v>
       </c>
       <c r="D55">
-        <v>0.03253988978655047</v>
+        <v>-0.01803802419019351</v>
       </c>
       <c r="E55">
-        <v>-0.01241652172894335</v>
+        <v>-0.02953083064525587</v>
       </c>
       <c r="F55">
-        <v>0.02286502501022177</v>
+        <v>-0.04714688776028101</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1396833365993759</v>
+        <v>-0.1772925929156143</v>
       </c>
       <c r="C56">
-        <v>-0.09161996905224058</v>
+        <v>-0.012945136497436</v>
       </c>
       <c r="D56">
-        <v>0.01853644025705087</v>
+        <v>-0.01742708665005233</v>
       </c>
       <c r="E56">
-        <v>-0.02034771464678647</v>
+        <v>-0.04218094280342637</v>
       </c>
       <c r="F56">
-        <v>0.0624407753200216</v>
+        <v>-0.02792263981571067</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03391938023943819</v>
+        <v>-0.04715797011896512</v>
       </c>
       <c r="C58">
-        <v>-0.0296462604779937</v>
+        <v>-0.003565309405181765</v>
       </c>
       <c r="D58">
-        <v>-0.03249746607879846</v>
+        <v>-0.06172568868336805</v>
       </c>
       <c r="E58">
-        <v>0.04199050715768475</v>
+        <v>-0.01373175199428954</v>
       </c>
       <c r="F58">
-        <v>0.001586102047973133</v>
+        <v>0.0438127561136742</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2144235949623225</v>
+        <v>-0.1702130008304453</v>
       </c>
       <c r="C59">
-        <v>0.2413901124614556</v>
+        <v>-0.01277268601735212</v>
       </c>
       <c r="D59">
-        <v>0.04983044365639175</v>
+        <v>0.2324709854684941</v>
       </c>
       <c r="E59">
-        <v>-0.0334430392816518</v>
+        <v>0.04626992370723859</v>
       </c>
       <c r="F59">
-        <v>-0.02744812843354304</v>
+        <v>0.03221168724226162</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2373498854930066</v>
+        <v>-0.2400586968116852</v>
       </c>
       <c r="C60">
-        <v>-0.1422588935935082</v>
+        <v>0.004221564781971625</v>
       </c>
       <c r="D60">
-        <v>0.0783663488785362</v>
+        <v>-0.0568249235021827</v>
       </c>
       <c r="E60">
-        <v>-0.1078572060331448</v>
+        <v>-0.01166769170257153</v>
       </c>
       <c r="F60">
-        <v>0.02295126593935638</v>
+        <v>0.04495940927874016</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09455502855876481</v>
+        <v>-0.08580677789105812</v>
       </c>
       <c r="C61">
-        <v>-0.06614395023403502</v>
+        <v>-0.01490946595369527</v>
       </c>
       <c r="D61">
-        <v>0.07081021531844676</v>
+        <v>-0.1043201641854753</v>
       </c>
       <c r="E61">
-        <v>0.1456524951358251</v>
+        <v>-0.03344318611972953</v>
       </c>
       <c r="F61">
-        <v>0.002895228924651133</v>
+        <v>-0.02465326875566694</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1296974684113786</v>
+        <v>-0.1683560333748472</v>
       </c>
       <c r="C62">
-        <v>-0.0748004072419102</v>
+        <v>-0.01678751871585992</v>
       </c>
       <c r="D62">
-        <v>0.005091808081445167</v>
+        <v>-0.01667943825422257</v>
       </c>
       <c r="E62">
-        <v>-0.04238569630943334</v>
+        <v>-0.03748526750028754</v>
       </c>
       <c r="F62">
-        <v>0.06701962814268984</v>
+        <v>-0.01273459601945928</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04520627613017382</v>
+        <v>-0.04284573931882145</v>
       </c>
       <c r="C63">
-        <v>-0.01902303723883502</v>
+        <v>-0.004428827525476855</v>
       </c>
       <c r="D63">
-        <v>0.008854035008881626</v>
+        <v>-0.04551066219038149</v>
       </c>
       <c r="E63">
-        <v>0.0706043875931827</v>
+        <v>-0.01412902090507097</v>
       </c>
       <c r="F63">
-        <v>0.001002005624569122</v>
+        <v>-0.01108155178327673</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09760175254253659</v>
+        <v>-0.1122559083129294</v>
       </c>
       <c r="C64">
-        <v>-0.05708996784914012</v>
+        <v>-0.01212408858634095</v>
       </c>
       <c r="D64">
-        <v>-0.00341426886076221</v>
+        <v>-0.03737651728702564</v>
       </c>
       <c r="E64">
-        <v>0.07148740920641618</v>
+        <v>-0.01879681026096892</v>
       </c>
       <c r="F64">
-        <v>0.007718061763740677</v>
+        <v>-0.01726342836178595</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1189197728650406</v>
+        <v>-0.1427257610411938</v>
       </c>
       <c r="C65">
-        <v>-0.0360884728558458</v>
+        <v>-0.03075768059724822</v>
       </c>
       <c r="D65">
-        <v>0.01905234068464098</v>
+        <v>0.04604769001422869</v>
       </c>
       <c r="E65">
-        <v>0.1035001641438614</v>
+        <v>-0.002713841001307516</v>
       </c>
       <c r="F65">
-        <v>-0.02684968424478414</v>
+        <v>-0.04304275328712839</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1108159524729231</v>
+        <v>-0.1341369920262281</v>
       </c>
       <c r="C66">
-        <v>-0.1158094002713185</v>
+        <v>-0.01713859901412663</v>
       </c>
       <c r="D66">
-        <v>0.1227073844629586</v>
+        <v>-0.1315369217713975</v>
       </c>
       <c r="E66">
-        <v>0.1631860569951762</v>
+        <v>-0.05833978280889371</v>
       </c>
       <c r="F66">
-        <v>0.05061681285326255</v>
+        <v>-0.04378609360125013</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.08327113973050133</v>
+        <v>-0.06556691511273728</v>
       </c>
       <c r="C67">
-        <v>-0.06770792403563908</v>
+        <v>-0.004425722211917059</v>
       </c>
       <c r="D67">
-        <v>-0.02237095663731293</v>
+        <v>-0.05637889046145695</v>
       </c>
       <c r="E67">
-        <v>-0.04569464323429886</v>
+        <v>-0.01904663349705604</v>
       </c>
       <c r="F67">
-        <v>0.1348040636425567</v>
+        <v>0.04291971586498289</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1282979256081065</v>
+        <v>-0.1110637435118753</v>
       </c>
       <c r="C68">
-        <v>0.2712590882692065</v>
+        <v>-0.02174011808726163</v>
       </c>
       <c r="D68">
-        <v>0.01503002366382789</v>
+        <v>0.2742566182870172</v>
       </c>
       <c r="E68">
-        <v>0.045076976413503</v>
+        <v>0.08408721187704959</v>
       </c>
       <c r="F68">
-        <v>0.005427044778036579</v>
+        <v>-0.04941214780890616</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04491324243124883</v>
+        <v>-0.04062761130951188</v>
       </c>
       <c r="C69">
-        <v>-0.01886723593107571</v>
+        <v>-0.001156332221619714</v>
       </c>
       <c r="D69">
-        <v>-0.008540277958252029</v>
+        <v>-0.008940789594241527</v>
       </c>
       <c r="E69">
-        <v>0.01863909452015784</v>
+        <v>-0.02609165309016149</v>
       </c>
       <c r="F69">
-        <v>0.04100685216531234</v>
+        <v>0.01612516175478825</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05201651482168721</v>
+        <v>-0.06419765319784772</v>
       </c>
       <c r="C70">
-        <v>-0.05627925916341615</v>
+        <v>0.02709062331477919</v>
       </c>
       <c r="D70">
-        <v>0.02562541953012092</v>
+        <v>-0.01014511347609283</v>
       </c>
       <c r="E70">
-        <v>0.06065883279167517</v>
+        <v>0.04340802733533756</v>
       </c>
       <c r="F70">
-        <v>-0.01021762917825209</v>
+        <v>0.3381343888834197</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1474877927607114</v>
+        <v>-0.1297871520224963</v>
       </c>
       <c r="C71">
-        <v>0.2781578769701306</v>
+        <v>-0.02543639212444001</v>
       </c>
       <c r="D71">
-        <v>0.01176642856592019</v>
+        <v>0.2901079364996089</v>
       </c>
       <c r="E71">
-        <v>0.05869255007583727</v>
+        <v>0.09204131502131987</v>
       </c>
       <c r="F71">
-        <v>0.009899026535735577</v>
+        <v>-0.05152822349106438</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1272063076276546</v>
+        <v>-0.1386107234993173</v>
       </c>
       <c r="C72">
-        <v>-0.02699174632891257</v>
+        <v>-0.02400226221209237</v>
       </c>
       <c r="D72">
-        <v>0.007178388942579749</v>
+        <v>-0.009744111892724434</v>
       </c>
       <c r="E72">
-        <v>0.04941967349524782</v>
+        <v>-0.04181919362475447</v>
       </c>
       <c r="F72">
-        <v>0.04477002520255081</v>
+        <v>-0.02578537051942848</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2270438846575334</v>
+        <v>-0.2097421763665374</v>
       </c>
       <c r="C73">
-        <v>-0.1262936068468624</v>
+        <v>-0.01179659390784344</v>
       </c>
       <c r="D73">
-        <v>0.1538267323124441</v>
+        <v>-0.02562397361931234</v>
       </c>
       <c r="E73">
-        <v>-0.4391992785967648</v>
+        <v>-0.07049239016646111</v>
       </c>
       <c r="F73">
-        <v>0.2561067012897836</v>
+        <v>-0.02302893016100981</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08772512678304913</v>
+        <v>-0.09369119400999053</v>
       </c>
       <c r="C74">
-        <v>-0.08721907424618483</v>
+        <v>-0.01183367302993125</v>
       </c>
       <c r="D74">
-        <v>0.008104827812666303</v>
+        <v>-0.02860846624924636</v>
       </c>
       <c r="E74">
-        <v>-0.01767339216104303</v>
+        <v>-0.05115433943193508</v>
       </c>
       <c r="F74">
-        <v>0.1019848089862579</v>
+        <v>-0.04104082816358864</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.08608580268989893</v>
+        <v>-0.1297504932189765</v>
       </c>
       <c r="C75">
-        <v>-0.06347253506106799</v>
+        <v>-0.02604392259799427</v>
       </c>
       <c r="D75">
-        <v>0.004128539266865229</v>
+        <v>-0.03855520114511961</v>
       </c>
       <c r="E75">
-        <v>0.008888462569323663</v>
+        <v>-0.05881001654116815</v>
       </c>
       <c r="F75">
-        <v>0.007771671106318412</v>
+        <v>-0.007370288140544358</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.07659625692068357</v>
+        <v>-0.009135717797856695</v>
       </c>
       <c r="C76">
-        <v>-0.07588745546266963</v>
+        <v>-0.002020294800670919</v>
       </c>
       <c r="D76">
-        <v>-0.005435608337125327</v>
+        <v>-0.003996319783794411</v>
       </c>
       <c r="E76">
-        <v>-0.05042204771871432</v>
+        <v>-0.009344672018368309</v>
       </c>
       <c r="F76">
-        <v>0.03574574079242433</v>
+        <v>-0.002475882599919098</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06877574583711535</v>
+        <v>-0.08079995398233737</v>
       </c>
       <c r="C77">
-        <v>-0.01533511378859274</v>
+        <v>-0.01181616498875494</v>
       </c>
       <c r="D77">
-        <v>0.03620923607507773</v>
+        <v>-0.09866198135417278</v>
       </c>
       <c r="E77">
-        <v>0.185690698708204</v>
+        <v>-0.03033476554642461</v>
       </c>
       <c r="F77">
-        <v>-0.136866095341751</v>
+        <v>-0.03765191964245666</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.179873299300102</v>
+        <v>-0.1102192457555762</v>
       </c>
       <c r="C78">
-        <v>-0.1490009455706607</v>
+        <v>-0.04440058967663987</v>
       </c>
       <c r="D78">
-        <v>-0.1700666814380722</v>
+        <v>-0.1166044097478796</v>
       </c>
       <c r="E78">
-        <v>-0.1307488955350064</v>
+        <v>-0.08954422352012899</v>
       </c>
       <c r="F78">
-        <v>-0.6496105861520511</v>
+        <v>-0.07596642247012367</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1291378321144908</v>
+        <v>-0.1622574266719623</v>
       </c>
       <c r="C79">
-        <v>-0.0773525603853394</v>
+        <v>-0.02005040416279403</v>
       </c>
       <c r="D79">
-        <v>-0.007948533968299131</v>
+        <v>-0.02346581977397996</v>
       </c>
       <c r="E79">
-        <v>-0.006356412325968269</v>
+        <v>-0.04858871735597141</v>
       </c>
       <c r="F79">
-        <v>0.04197926792101684</v>
+        <v>-0.005378121923282398</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.06726737765695265</v>
+        <v>-0.07983365572405438</v>
       </c>
       <c r="C80">
-        <v>-0.041496803323399</v>
+        <v>0.001491338288197204</v>
       </c>
       <c r="D80">
-        <v>0.07599547425266436</v>
+        <v>-0.05348076311845813</v>
       </c>
       <c r="E80">
-        <v>0.06149552200273758</v>
+        <v>-0.02777256915923098</v>
       </c>
       <c r="F80">
-        <v>0.03878443533396977</v>
+        <v>0.01094305068832639</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1219283903359222</v>
+        <v>-0.1220846104263272</v>
       </c>
       <c r="C81">
-        <v>-0.04964460178745712</v>
+        <v>-0.02981844225235297</v>
       </c>
       <c r="D81">
-        <v>-0.0115700058372212</v>
+        <v>-0.02783785391226125</v>
       </c>
       <c r="E81">
-        <v>0.0631596534097911</v>
+        <v>-0.05834548136949055</v>
       </c>
       <c r="F81">
-        <v>0.02164686859406911</v>
+        <v>0.003781188915104907</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1209578147898102</v>
+        <v>-0.1621077854377223</v>
       </c>
       <c r="C82">
-        <v>-0.05867270114255219</v>
+        <v>-0.02044964665206293</v>
       </c>
       <c r="D82">
-        <v>0.008794499150225786</v>
+        <v>-0.02310783309290279</v>
       </c>
       <c r="E82">
-        <v>0.01703151718023587</v>
+        <v>-0.03450464136943424</v>
       </c>
       <c r="F82">
-        <v>0.1005360493797982</v>
+        <v>-0.05233309838842094</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08337233195944821</v>
+        <v>-0.06639162073866944</v>
       </c>
       <c r="C83">
-        <v>-0.07863065939672891</v>
+        <v>-0.004038821056133503</v>
       </c>
       <c r="D83">
-        <v>0.008339896259374197</v>
+        <v>-0.04605970282623652</v>
       </c>
       <c r="E83">
-        <v>0.04972404081381254</v>
+        <v>-0.003510046511800043</v>
       </c>
       <c r="F83">
-        <v>0.09587819085511312</v>
+        <v>0.03088119801552473</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.04825136010072693</v>
+        <v>-0.06068895792324457</v>
       </c>
       <c r="C84">
-        <v>0.0535765867056968</v>
+        <v>-0.01184769784890208</v>
       </c>
       <c r="D84">
-        <v>0.04158371094542575</v>
+        <v>-0.05904424342297591</v>
       </c>
       <c r="E84">
-        <v>-0.03697271227457222</v>
+        <v>0.003980683053406928</v>
       </c>
       <c r="F84">
-        <v>-0.1918150612440858</v>
+        <v>-0.01472961961762381</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.119404334118857</v>
+        <v>-0.1376104601979669</v>
       </c>
       <c r="C85">
-        <v>-0.05229476638954994</v>
+        <v>-0.02548474377059067</v>
       </c>
       <c r="D85">
-        <v>0.0054951684805029</v>
+        <v>-0.02044377648242113</v>
       </c>
       <c r="E85">
-        <v>-0.005971755533723797</v>
+        <v>-0.04011199794347544</v>
       </c>
       <c r="F85">
-        <v>0.05629048204478779</v>
+        <v>-0.040058548280747</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09245055509500166</v>
+        <v>-0.1006007827785644</v>
       </c>
       <c r="C86">
-        <v>-0.01007102149312197</v>
+        <v>0.006878210196701996</v>
       </c>
       <c r="D86">
-        <v>-0.02806511713026745</v>
+        <v>-0.01317169426484652</v>
       </c>
       <c r="E86">
-        <v>-0.3164094813989367</v>
+        <v>-0.1325289860339639</v>
       </c>
       <c r="F86">
-        <v>-0.417227974446301</v>
+        <v>0.832553043857207</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1228015337319385</v>
+        <v>-0.1011354266787914</v>
       </c>
       <c r="C87">
-        <v>-0.06337922672832695</v>
+        <v>-0.02629343935591025</v>
       </c>
       <c r="D87">
-        <v>-0.01477390721579504</v>
+        <v>-0.06865829649665274</v>
       </c>
       <c r="E87">
-        <v>0.06888290038906157</v>
+        <v>0.05419322590822667</v>
       </c>
       <c r="F87">
-        <v>-0.02954613290896379</v>
+        <v>-0.09313738278931719</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05876839006822773</v>
+        <v>-0.06164181087133394</v>
       </c>
       <c r="C88">
-        <v>-0.06204120248628538</v>
+        <v>-0.003400985380700856</v>
       </c>
       <c r="D88">
-        <v>0.03434443541384491</v>
+        <v>-0.0571703222776309</v>
       </c>
       <c r="E88">
-        <v>0.02481473068791422</v>
+        <v>-0.02565580387676376</v>
       </c>
       <c r="F88">
-        <v>0.02044297957912332</v>
+        <v>-0.006772577506110723</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2288294730200076</v>
+        <v>-0.1320134234680804</v>
       </c>
       <c r="C89">
-        <v>0.3718783332498817</v>
+        <v>-0.004473179350408057</v>
       </c>
       <c r="D89">
-        <v>-0.05222486105734354</v>
+        <v>0.2762442195271109</v>
       </c>
       <c r="E89">
-        <v>-0.03052784740472813</v>
+        <v>0.09022555483283451</v>
       </c>
       <c r="F89">
-        <v>-0.01805571461414116</v>
+        <v>-0.03276161675891152</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1558253207805475</v>
+        <v>-0.1419537514215755</v>
       </c>
       <c r="C90">
-        <v>0.2604082302916624</v>
+        <v>-0.02103747337119518</v>
       </c>
       <c r="D90">
-        <v>0.01056254298063822</v>
+        <v>0.2756017762330479</v>
       </c>
       <c r="E90">
-        <v>0.01642467343571785</v>
+        <v>0.1025577795363496</v>
       </c>
       <c r="F90">
-        <v>0.01820849996127222</v>
+        <v>-0.03761730620316382</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07697442721666796</v>
+        <v>-0.1169771864832869</v>
       </c>
       <c r="C91">
-        <v>-0.061534720654607</v>
+        <v>-0.01623066696988397</v>
       </c>
       <c r="D91">
-        <v>-0.003848363403278236</v>
+        <v>-0.002935178469840061</v>
       </c>
       <c r="E91">
-        <v>-0.01861303872784317</v>
+        <v>-0.05897685635636676</v>
       </c>
       <c r="F91">
-        <v>0.001386947403288892</v>
+        <v>0.03094545257471913</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1674660774261847</v>
+        <v>-0.1442758882284595</v>
       </c>
       <c r="C92">
-        <v>0.2962474268691277</v>
+        <v>-0.01229593663058424</v>
       </c>
       <c r="D92">
-        <v>-0.03257779987343975</v>
+        <v>0.3106122672491364</v>
       </c>
       <c r="E92">
-        <v>0.04758764788220562</v>
+        <v>0.09872288491880596</v>
       </c>
       <c r="F92">
-        <v>-0.02884604521703693</v>
+        <v>-0.02844472342312339</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.169944572016761</v>
+        <v>-0.1462848679337186</v>
       </c>
       <c r="C93">
-        <v>0.3064947842216618</v>
+        <v>-0.01776451175507705</v>
       </c>
       <c r="D93">
-        <v>0.03827882541544929</v>
+        <v>0.2802709975450607</v>
       </c>
       <c r="E93">
-        <v>0.01474258732121708</v>
+        <v>0.06943252525641753</v>
       </c>
       <c r="F93">
-        <v>-0.006777802167616305</v>
+        <v>-0.02951445572906262</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1144966980003044</v>
+        <v>-0.1334470105042302</v>
       </c>
       <c r="C94">
-        <v>-0.08516172018981338</v>
+        <v>-0.02347499455066472</v>
       </c>
       <c r="D94">
-        <v>-0.008407271415194702</v>
+        <v>-0.05154905439415306</v>
       </c>
       <c r="E94">
-        <v>-0.01207417033989784</v>
+        <v>-0.06125958789062146</v>
       </c>
       <c r="F94">
-        <v>0.03835461509271954</v>
+        <v>-0.0255102803065639</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1380629963374409</v>
+        <v>-0.1272977005732933</v>
       </c>
       <c r="C95">
-        <v>-0.06145832083585474</v>
+        <v>-0.006358914217472115</v>
       </c>
       <c r="D95">
-        <v>-0.02053513748275944</v>
+        <v>-0.08920201442327698</v>
       </c>
       <c r="E95">
-        <v>0.03169610138704564</v>
+        <v>-0.04031312302493392</v>
       </c>
       <c r="F95">
-        <v>-0.1251007244833741</v>
+        <v>0.009236438973734539</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09512895952055798</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.9893614781279042</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.01474214574562016</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.06022296560881715</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.05031409120400964</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.117496050703362</v>
+        <v>-0.1878313727200504</v>
       </c>
       <c r="C97">
-        <v>0.01519387178387561</v>
+        <v>0.01245700023483739</v>
       </c>
       <c r="D97">
-        <v>-0.01214765563650657</v>
+        <v>0.009723322052263984</v>
       </c>
       <c r="E97">
-        <v>0.313535423581544</v>
+        <v>-0.01329678148724945</v>
       </c>
       <c r="F97">
-        <v>0.1581230574326203</v>
+        <v>0.1620405651751637</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2569449203545522</v>
+        <v>-0.2079289941918569</v>
       </c>
       <c r="C98">
-        <v>-0.1207993308348449</v>
+        <v>-0.007441370148157361</v>
       </c>
       <c r="D98">
-        <v>-0.05505920809187548</v>
+        <v>-0.01570288670923963</v>
       </c>
       <c r="E98">
-        <v>-0.2429416002961995</v>
+        <v>0.08696450777009294</v>
       </c>
       <c r="F98">
-        <v>0.1014769686674538</v>
+        <v>0.1412104519240418</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.07300975533501614</v>
+        <v>-0.05774875007798697</v>
       </c>
       <c r="C99">
-        <v>-0.05547474783951056</v>
+        <v>0.003265743462658039</v>
       </c>
       <c r="D99">
-        <v>-0.01470436659145158</v>
+        <v>-0.03233609560323092</v>
       </c>
       <c r="E99">
-        <v>-0.04034707786499494</v>
+        <v>-0.02652694769886884</v>
       </c>
       <c r="F99">
-        <v>0.01502254982807353</v>
+        <v>-0.004110316257374973</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1224614103188493</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04791486997448407</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.321080810174698</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.9075103191885999</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.06057548116062264</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.04215802281870323</v>
+        <v>-0.02737119142946517</v>
       </c>
       <c r="C101">
-        <v>-0.02685046147029809</v>
+        <v>-0.009265930122665548</v>
       </c>
       <c r="D101">
-        <v>0.005255318857819957</v>
+        <v>-0.02515069763095893</v>
       </c>
       <c r="E101">
-        <v>0.03710882774797868</v>
+        <v>-0.008719413734858385</v>
       </c>
       <c r="F101">
-        <v>-0.02039704512339852</v>
+        <v>0.009600235502977566</v>
       </c>
     </row>
     <row r="102" spans="1:6">
